--- a/data/trans_orig/P19C03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>130027</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>112217</v>
+        <v>112645</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>146872</v>
+        <v>147725</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3617889724625235</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3122326564740591</v>
+        <v>0.3134244132248725</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4086571767870899</v>
+        <v>0.4110320587339363</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>129</v>
@@ -765,19 +765,19 @@
         <v>124570</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>106948</v>
+        <v>108960</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>141454</v>
+        <v>143046</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3310816410957373</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2842443993272862</v>
+        <v>0.2895922977109369</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3759552045432659</v>
+        <v>0.3801862645350887</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>261</v>
@@ -786,19 +786,19 @@
         <v>254597</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>231458</v>
+        <v>230445</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>281481</v>
+        <v>279811</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3460836160731964</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3146289422936439</v>
+        <v>0.3132517440804783</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3826272480238589</v>
+        <v>0.380357751540926</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>229374</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>212529</v>
+        <v>211676</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>247184</v>
+        <v>246756</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6382110275374765</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.59134282321291</v>
+        <v>0.5889679412660638</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6877673435259408</v>
+        <v>0.6865755867751278</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>266</v>
@@ -836,19 +836,19 @@
         <v>251682</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>234798</v>
+        <v>233206</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>269304</v>
+        <v>267292</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6689183589042627</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6240447954567337</v>
+        <v>0.6198137354649113</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7157556006727138</v>
+        <v>0.7104077022890631</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>496</v>
@@ -857,19 +857,19 @@
         <v>481056</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>454172</v>
+        <v>455842</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>504195</v>
+        <v>505208</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6539163839268036</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6173727519761411</v>
+        <v>0.619642248459074</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6853710577063562</v>
+        <v>0.6867482559195217</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>229067</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>206507</v>
+        <v>206114</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>254491</v>
+        <v>253821</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3978368653923326</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3586552393040373</v>
+        <v>0.3579728682601873</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4419931350387518</v>
+        <v>0.4408293716786424</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>203</v>
@@ -982,19 +982,19 @@
         <v>215906</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>193441</v>
+        <v>193129</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>239984</v>
+        <v>238996</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3941985347526888</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3531821887127049</v>
+        <v>0.3526122556029535</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4381603216408387</v>
+        <v>0.4363563632432014</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>429</v>
@@ -1003,19 +1003,19 @@
         <v>444973</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>409738</v>
+        <v>409635</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>476267</v>
+        <v>479092</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3960631564666124</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3647012236689804</v>
+        <v>0.3646096840460105</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4239175286202271</v>
+        <v>0.4264326590651167</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>346714</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>321290</v>
+        <v>321960</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>369274</v>
+        <v>369667</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6021631346076675</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5580068649612482</v>
+        <v>0.5591706283213576</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6413447606959628</v>
+        <v>0.6420271317398125</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>316</v>
@@ -1053,19 +1053,19 @@
         <v>331802</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>307724</v>
+        <v>308712</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>354267</v>
+        <v>354579</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6058014652473112</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5618396783591613</v>
+        <v>0.5636436367567984</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6468178112872951</v>
+        <v>0.6473877443970463</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>644</v>
@@ -1074,19 +1074,19 @@
         <v>678516</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>647222</v>
+        <v>644397</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>713751</v>
+        <v>713854</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6039368435333876</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.576082471379773</v>
+        <v>0.5735673409348834</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6352987763310196</v>
+        <v>0.6353903159539896</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>193725</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>170059</v>
+        <v>171881</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>216942</v>
+        <v>216185</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3859892008477398</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3388349674862629</v>
+        <v>0.3424658100528394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4322488190993476</v>
+        <v>0.4307392034111582</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>215</v>
@@ -1199,19 +1199,19 @@
         <v>224343</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>203348</v>
+        <v>200099</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>250414</v>
+        <v>248006</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3716967509116976</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3369107623117822</v>
+        <v>0.3315278526079264</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4148908991921241</v>
+        <v>0.4109024013492737</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>400</v>
@@ -1220,19 +1220,19 @@
         <v>418068</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>386448</v>
+        <v>386490</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>455415</v>
+        <v>451878</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3781857137120236</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3495821383449955</v>
+        <v>0.349620463573297</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.411969891244865</v>
+        <v>0.4087701130960185</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>308167</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>284950</v>
+        <v>285707</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>331833</v>
+        <v>330011</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6140107991522602</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5677511809006525</v>
+        <v>0.5692607965888419</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6611650325137371</v>
+        <v>0.6575341899471605</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>360</v>
@@ -1270,19 +1270,19 @@
         <v>379222</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>353151</v>
+        <v>355559</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>400217</v>
+        <v>403466</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6283032490883024</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5851091008078759</v>
+        <v>0.5890975986507264</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6630892376882177</v>
+        <v>0.6684721473920735</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>660</v>
@@ -1291,19 +1291,19 @@
         <v>687389</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>650042</v>
+        <v>653579</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>719009</v>
+        <v>718967</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6218142862879764</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5880301087551352</v>
+        <v>0.5912298869039813</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6504178616550046</v>
+        <v>0.6503795364267029</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>142958</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>123623</v>
+        <v>124503</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>161593</v>
+        <v>165158</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3532035366521306</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3054321547447045</v>
+        <v>0.3076073953858493</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.399242701509827</v>
+        <v>0.4080521676661646</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>150</v>
@@ -1416,19 +1416,19 @@
         <v>154341</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>134651</v>
+        <v>134399</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>173764</v>
+        <v>175279</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3514267979859156</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3065917631693927</v>
+        <v>0.3060189779120524</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.395650487652982</v>
+        <v>0.399100329331208</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>284</v>
@@ -1437,19 +1437,19 @@
         <v>297300</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>270399</v>
+        <v>270802</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>325900</v>
+        <v>327138</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.352278917044724</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3204030808368548</v>
+        <v>0.3208803436043748</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3861681684328598</v>
+        <v>0.3876345149526357</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>261790</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>243155</v>
+        <v>239590</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>281125</v>
+        <v>280245</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6467964633478694</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6007572984901731</v>
+        <v>0.5919478323338352</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6945678452552955</v>
+        <v>0.6923926046141506</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>279</v>
@@ -1487,19 +1487,19 @@
         <v>284844</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>265421</v>
+        <v>263906</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>304534</v>
+        <v>304786</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6485732020140844</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6043495123470179</v>
+        <v>0.6008996706687919</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6934082368306073</v>
+        <v>0.6939810220879475</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>525</v>
@@ -1508,19 +1508,19 @@
         <v>546633</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>518033</v>
+        <v>516795</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>573534</v>
+        <v>573131</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.647721082955276</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6138318315671402</v>
+        <v>0.6123654850473642</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6795969191631451</v>
+        <v>0.6791196563956252</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>55927</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43269</v>
+        <v>42692</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>69172</v>
+        <v>69055</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2053488437127033</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1588727999052371</v>
+        <v>0.1567563747771925</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2539812477108338</v>
+        <v>0.2535546493885348</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>94</v>
@@ -1633,19 +1633,19 @@
         <v>97243</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83081</v>
+        <v>81505</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>114208</v>
+        <v>114075</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.304758732650721</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2603760191580528</v>
+        <v>0.2554357957739083</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3579257323433653</v>
+        <v>0.3575089052914131</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>151</v>
@@ -1654,19 +1654,19 @@
         <v>153170</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>132331</v>
+        <v>131423</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>173765</v>
+        <v>174418</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2589812402772648</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2237479731493732</v>
+        <v>0.2222125797376069</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2938043552169596</v>
+        <v>0.2949086504103523</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>216422</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>203177</v>
+        <v>203294</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>229080</v>
+        <v>229657</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7946511562872967</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7460187522891661</v>
+        <v>0.7464453506114651</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8411272000947629</v>
+        <v>0.8432436252228075</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>218</v>
@@ -1704,19 +1704,19 @@
         <v>221839</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>204874</v>
+        <v>205007</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>236001</v>
+        <v>237577</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.695241267349279</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6420742676566347</v>
+        <v>0.6424910947085865</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7396239808419472</v>
+        <v>0.7445642042260916</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>437</v>
@@ -1725,19 +1725,19 @@
         <v>438261</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>417666</v>
+        <v>417013</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>459100</v>
+        <v>460008</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7410187597227352</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7061956447830405</v>
+        <v>0.7050913495896479</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.776252026850627</v>
+        <v>0.7777874202623931</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>26292</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16807</v>
+        <v>17748</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36290</v>
+        <v>36883</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1235743831808784</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07899523742653181</v>
+        <v>0.08341440216153947</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1705643152247723</v>
+        <v>0.1733528801648802</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>55</v>
@@ -1850,19 +1850,19 @@
         <v>51000</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>39923</v>
+        <v>39948</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>64171</v>
+        <v>64525</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2065296634284579</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1616732381920424</v>
+        <v>0.1617735369360999</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2598674366547194</v>
+        <v>0.2612997091497004</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -1871,19 +1871,19 @@
         <v>77292</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>62304</v>
+        <v>62242</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>93858</v>
+        <v>92469</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1681353213772083</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1355302520577966</v>
+        <v>0.1353965598605368</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2041702172753657</v>
+        <v>0.2011498998141107</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>186473</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>176475</v>
+        <v>175882</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>195958</v>
+        <v>195017</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8764256168191217</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8294356847752277</v>
+        <v>0.82664711983512</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.921004762573468</v>
+        <v>0.9165855978384606</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>212</v>
@@ -1921,19 +1921,19 @@
         <v>195938</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>182767</v>
+        <v>182413</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>207015</v>
+        <v>206990</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7934703365715421</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7401325633452805</v>
+        <v>0.7387002908502996</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8383267618079577</v>
+        <v>0.8382264630639001</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>404</v>
@@ -1942,19 +1942,19 @@
         <v>382411</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>365845</v>
+        <v>367234</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>397399</v>
+        <v>397461</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8318646786227918</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7958297827246342</v>
+        <v>0.7988501001858894</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8644697479422034</v>
+        <v>0.8646034401394633</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>6943</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2732</v>
+        <v>2808</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13589</v>
+        <v>14053</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05477236685239192</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.021551806176505</v>
+        <v>0.02215240537771232</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1072006289179502</v>
+        <v>0.110856736264414</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2067,19 +2067,19 @@
         <v>11401</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5694</v>
+        <v>5697</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19719</v>
+        <v>20547</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05475796962248274</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02734963967003091</v>
+        <v>0.02736402625760468</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09470627924875097</v>
+        <v>0.09868666224229884</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -2088,19 +2088,19 @@
         <v>18344</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11156</v>
+        <v>10763</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28114</v>
+        <v>28979</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05476341798990708</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03330569325489095</v>
+        <v>0.03213037984419147</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08392993170772939</v>
+        <v>0.08651238382218684</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>119821</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>113175</v>
+        <v>112711</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>124032</v>
+        <v>123956</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.945227633147608</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8927993710820498</v>
+        <v>0.8891432637355861</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.978448193823495</v>
+        <v>0.9778475946222877</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>172</v>
@@ -2138,19 +2138,19 @@
         <v>196807</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>188489</v>
+        <v>187661</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>202514</v>
+        <v>202511</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9452420303775173</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.905293720751249</v>
+        <v>0.9013133377577014</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9726503603299691</v>
+        <v>0.9726359737423953</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>295</v>
@@ -2159,19 +2159,19 @@
         <v>316628</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>306858</v>
+        <v>305993</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>323816</v>
+        <v>324209</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.945236582010093</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9160700682922706</v>
+        <v>0.9134876161778134</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9666943067451091</v>
+        <v>0.9678696201558085</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>784940</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>740164</v>
+        <v>740086</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>833938</v>
+        <v>831913</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3199003733839782</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3016519105184662</v>
+        <v>0.3016202138909649</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3398696292108713</v>
+        <v>0.3390441684535774</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>856</v>
@@ -2284,19 +2284,19 @@
         <v>878804</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>831480</v>
+        <v>831543</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>930805</v>
+        <v>931047</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3206218060028286</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3033560602226798</v>
+        <v>0.3033789484378354</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3395936139880668</v>
+        <v>0.3396819731149724</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1624</v>
@@ -2305,19 +2305,19 @@
         <v>1663744</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1592023</v>
+        <v>1597528</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1734426</v>
+        <v>1730592</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3202810353942074</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.306474253072193</v>
+        <v>0.3075339553795495</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3338877487156818</v>
+        <v>0.3331496391303114</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1668761</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1619763</v>
+        <v>1621788</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1713537</v>
+        <v>1713615</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6800996266160219</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6601303707891288</v>
+        <v>0.6609558315464227</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6983480894815338</v>
+        <v>0.6983797861090353</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1823</v>
@@ -2355,19 +2355,19 @@
         <v>1862133</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1810132</v>
+        <v>1809890</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1909457</v>
+        <v>1909394</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6793781939971715</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6604063860119335</v>
+        <v>0.6603180268850276</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6966439397773204</v>
+        <v>0.6966210515621647</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3461</v>
@@ -2376,19 +2376,19 @@
         <v>3530894</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3460212</v>
+        <v>3464046</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3602615</v>
+        <v>3597110</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6797189646057926</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6661122512843182</v>
+        <v>0.6668503608696886</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.693525746927807</v>
+        <v>0.6924660446204505</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>127378</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>108570</v>
+        <v>110002</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>145567</v>
+        <v>146000</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3367449472007261</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2870238103394115</v>
+        <v>0.2908089527535703</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3848312230234561</v>
+        <v>0.3859751970216918</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>108</v>
@@ -2744,19 +2744,19 @@
         <v>109482</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>92351</v>
+        <v>93441</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>127138</v>
+        <v>128802</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2951058162877501</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2489295726960464</v>
+        <v>0.2518697126951892</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3426977722850769</v>
+        <v>0.3471845417720984</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>229</v>
@@ -2765,19 +2765,19 @@
         <v>236859</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>211684</v>
+        <v>212189</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>262532</v>
+        <v>261892</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3161274398015987</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2825260976373086</v>
+        <v>0.2832006302178199</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3503921445783076</v>
+        <v>0.3495380957630042</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>250884</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>232695</v>
+        <v>232262</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>269692</v>
+        <v>268260</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6632550527992739</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.615168776976544</v>
+        <v>0.6140248029783083</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7129761896605886</v>
+        <v>0.7091910472464297</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>254</v>
@@ -2815,19 +2815,19 @@
         <v>261509</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>243853</v>
+        <v>242189</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>278640</v>
+        <v>277550</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7048941837122499</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6573022277149231</v>
+        <v>0.6528154582279019</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7510704273039536</v>
+        <v>0.7481302873048108</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>505</v>
@@ -2836,19 +2836,19 @@
         <v>512394</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>486721</v>
+        <v>487361</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>537569</v>
+        <v>537064</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6838725601984014</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6496078554216922</v>
+        <v>0.650461904236996</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7174739023626914</v>
+        <v>0.7167993697821804</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>203442</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>179823</v>
+        <v>180345</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>226190</v>
+        <v>228328</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3411659438852462</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.301557874951818</v>
+        <v>0.3024334944002314</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3793136113537196</v>
+        <v>0.3828982915443899</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>182</v>
@@ -2961,19 +2961,19 @@
         <v>190069</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>166734</v>
+        <v>166440</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>215079</v>
+        <v>212590</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3401310149079837</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2983725283893246</v>
+        <v>0.2978469090493385</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3848873906987988</v>
+        <v>0.3804339938674178</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>384</v>
@@ -2982,19 +2982,19 @@
         <v>393510</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>363853</v>
+        <v>359791</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>426888</v>
+        <v>426251</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3406652801928658</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3149904308672346</v>
+        <v>0.311474376403926</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3695609429873923</v>
+        <v>0.369008794855069</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>392872</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>370124</v>
+        <v>367986</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>416491</v>
+        <v>415969</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6588340561147539</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6206863886462805</v>
+        <v>0.61710170845561</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6984421250481819</v>
+        <v>0.6975665055997686</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>340</v>
@@ -3032,19 +3032,19 @@
         <v>368741</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>343731</v>
+        <v>346220</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>392076</v>
+        <v>392370</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6598689850920163</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6151126093012012</v>
+        <v>0.6195660061325823</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7016274716106753</v>
+        <v>0.7021530909506615</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>717</v>
@@ -3053,19 +3053,19 @@
         <v>761613</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>728235</v>
+        <v>728872</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>791270</v>
+        <v>795332</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6593347198071342</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6304390570126076</v>
+        <v>0.6309912051449309</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.685009569132765</v>
+        <v>0.6885256235960741</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>197576</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>176475</v>
+        <v>176345</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>221940</v>
+        <v>223693</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.337316116784571</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3012913441439504</v>
+        <v>0.3010693725856164</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.378911390257277</v>
+        <v>0.3819053733383649</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>223</v>
@@ -3178,19 +3178,19 @@
         <v>235411</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>211653</v>
+        <v>207995</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>261449</v>
+        <v>263062</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3569793847512028</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.320951294180273</v>
+        <v>0.315404860445926</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3964622596020354</v>
+        <v>0.398908713872024</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>415</v>
@@ -3199,19 +3199,19 @@
         <v>432988</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>400105</v>
+        <v>402383</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>467787</v>
+        <v>470165</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3477298503384201</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3213218262649736</v>
+        <v>0.323151414007634</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3756768314468286</v>
+        <v>0.3775869181474737</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>388154</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>363790</v>
+        <v>362037</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>409255</v>
+        <v>409385</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.662683883215429</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6210886097427231</v>
+        <v>0.6180946266616348</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6987086558560497</v>
+        <v>0.6989306274143835</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>398</v>
@@ -3249,19 +3249,19 @@
         <v>424043</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>398005</v>
+        <v>396392</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>447801</v>
+        <v>451459</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6430206152487972</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6035377403979642</v>
+        <v>0.6010912861279759</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6790487058197265</v>
+        <v>0.6845951395540737</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>768</v>
@@ -3270,19 +3270,19 @@
         <v>812196</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>777397</v>
+        <v>775019</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>845079</v>
+        <v>842801</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6522701496615799</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6243231685531713</v>
+        <v>0.6224130818525262</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6786781737350263</v>
+        <v>0.676848585992366</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>179410</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>156025</v>
+        <v>157567</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>201896</v>
+        <v>203404</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3305025379030625</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2874237949905212</v>
+        <v>0.2902648128690772</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3719265016552225</v>
+        <v>0.3747047474283575</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>151</v>
@@ -3395,19 +3395,19 @@
         <v>171183</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>148622</v>
+        <v>149373</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>195350</v>
+        <v>196665</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3049066620748643</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2647218062731535</v>
+        <v>0.266059375680348</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3479522551604114</v>
+        <v>0.3502942600362456</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>311</v>
@@ -3416,19 +3416,19 @@
         <v>350593</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>321130</v>
+        <v>316896</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>385175</v>
+        <v>385592</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3174891696409957</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2908082537203241</v>
+        <v>0.2869737052157425</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3488064230566693</v>
+        <v>0.349183909494533</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>363429</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>340943</v>
+        <v>339435</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>386814</v>
+        <v>385272</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6694974620969375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6280734983447777</v>
+        <v>0.6252952525716424</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7125762050094787</v>
+        <v>0.7097351871309228</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>341</v>
@@ -3466,19 +3466,19 @@
         <v>390245</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>366078</v>
+        <v>364763</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>412806</v>
+        <v>412055</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6950933379251356</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6520477448395887</v>
+        <v>0.6497057399637541</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7352781937268464</v>
+        <v>0.7339406243196519</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>664</v>
@@ -3487,19 +3487,19 @@
         <v>753674</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>719092</v>
+        <v>718675</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>783137</v>
+        <v>787371</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6825108303590044</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6511935769433308</v>
+        <v>0.6508160905054671</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7091917462796761</v>
+        <v>0.7130262947842575</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>110543</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>91502</v>
+        <v>93299</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128848</v>
+        <v>129530</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3059502084546105</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2532496789170628</v>
+        <v>0.2582252941226038</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3566137171410602</v>
+        <v>0.3585020855494091</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>112</v>
@@ -3612,19 +3612,19 @@
         <v>123629</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>105694</v>
+        <v>104678</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>144679</v>
+        <v>143836</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3164166298602222</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2705131388763255</v>
+        <v>0.267913758589908</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.370293819241415</v>
+        <v>0.3681343986262462</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>215</v>
@@ -3633,19 +3633,19 @@
         <v>234172</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>209837</v>
+        <v>208795</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>260583</v>
+        <v>259244</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3113880474863292</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2790298458481508</v>
+        <v>0.2776437588043682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3465086683161593</v>
+        <v>0.3447278455728581</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>250767</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>232462</v>
+        <v>231780</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>269808</v>
+        <v>268011</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6940497915453895</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6433862828589398</v>
+        <v>0.641497914450591</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7467503210829374</v>
+        <v>0.7417747058773969</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>241</v>
@@ -3683,19 +3683,19 @@
         <v>267086</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>246036</v>
+        <v>246879</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>285021</v>
+        <v>286037</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6835833701397778</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6297061807585851</v>
+        <v>0.6318656013737538</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7294868611236746</v>
+        <v>0.7320862414100919</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>471</v>
@@ -3704,19 +3704,19 @@
         <v>517853</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>491442</v>
+        <v>492781</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>542188</v>
+        <v>543230</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6886119525136708</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6534913316838408</v>
+        <v>0.6552721544271419</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7209701541518492</v>
+        <v>0.7223562411956318</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>41441</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29777</v>
+        <v>30507</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55061</v>
+        <v>57387</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1578779674514902</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1134398854939884</v>
+        <v>0.1162225829943073</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2097645371918248</v>
+        <v>0.2186268412059475</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>61</v>
@@ -3829,19 +3829,19 @@
         <v>60493</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47590</v>
+        <v>48013</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>73734</v>
+        <v>74921</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2019158661612806</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1588487229573026</v>
+        <v>0.160259149502743</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2461126770842276</v>
+        <v>0.2500756289252743</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>97</v>
@@ -3850,19 +3850,19 @@
         <v>101934</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>83155</v>
+        <v>85092</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>120708</v>
+        <v>122932</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1813503890038903</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1479406979502297</v>
+        <v>0.1513857934842674</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2147500638720813</v>
+        <v>0.2187076726123226</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>221049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>207429</v>
+        <v>205103</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232713</v>
+        <v>231983</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8421220325485098</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7902354628081752</v>
+        <v>0.7813731587940524</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8865601145060116</v>
+        <v>0.8837774170056927</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>229</v>
@@ -3900,19 +3900,19 @@
         <v>239100</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>225859</v>
+        <v>224672</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>252003</v>
+        <v>251580</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7980841338387193</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7538873229157724</v>
+        <v>0.7499243710747258</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8411512770426974</v>
+        <v>0.8397408504972571</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>432</v>
@@ -3921,19 +3921,19 @@
         <v>460150</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>441376</v>
+        <v>439152</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>478929</v>
+        <v>476992</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8186496109961097</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7852499361279187</v>
+        <v>0.7812923273876774</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8520593020497703</v>
+        <v>0.8486142065157324</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>14777</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8439</v>
+        <v>8379</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24048</v>
+        <v>24593</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07990621692398631</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04563565601253883</v>
+        <v>0.04530945494246939</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1300387397637747</v>
+        <v>0.1329857795446641</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -4046,19 +4046,19 @@
         <v>20451</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12724</v>
+        <v>12812</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31241</v>
+        <v>31518</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06738665693324915</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04192617969686366</v>
+        <v>0.04221500735695249</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1029387780616596</v>
+        <v>0.1038511696621816</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>32</v>
@@ -4067,19 +4067,19 @@
         <v>35228</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24601</v>
+        <v>24666</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47981</v>
+        <v>48827</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07212682986511307</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05036845127851608</v>
+        <v>0.05050188455877377</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09823753481990075</v>
+        <v>0.09996893648630843</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>170149</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>160878</v>
+        <v>160333</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>176487</v>
+        <v>176547</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9200937830760136</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8699612602362253</v>
+        <v>0.8670142204553355</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9543643439874612</v>
+        <v>0.9546905450575306</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>256</v>
@@ -4117,19 +4117,19 @@
         <v>283042</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>272252</v>
+        <v>271975</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>290769</v>
+        <v>290681</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9326133430667508</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8970612219383404</v>
+        <v>0.8961488303378186</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9580738203031364</v>
+        <v>0.9577849926430476</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>407</v>
@@ -4138,19 +4138,19 @@
         <v>453191</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>440438</v>
+        <v>439592</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>463818</v>
+        <v>463753</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9278731701348869</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9017624651800995</v>
+        <v>0.9000310635136916</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9496315487214839</v>
+        <v>0.9494981154412262</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>874567</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>829226</v>
+        <v>825033</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>925363</v>
+        <v>923011</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3003452655274862</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2847743930207224</v>
+        <v>0.2833342031761531</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3177897978734626</v>
+        <v>0.3169821146877057</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>855</v>
@@ -4263,19 +4263,19 @@
         <v>910717</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>860952</v>
+        <v>862702</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>964245</v>
+        <v>962889</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2896237918187499</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2737977433923122</v>
+        <v>0.2743542909240912</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3066466611192507</v>
+        <v>0.3062154240053243</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1683</v>
@@ -4284,19 +4284,19 @@
         <v>1785284</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1717750</v>
+        <v>1709948</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1858370</v>
+        <v>1857721</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2947786338028714</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2836277408435715</v>
+        <v>0.2823394193310304</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3068461993291364</v>
+        <v>0.3067390431260946</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2037304</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1986508</v>
+        <v>1988860</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2082645</v>
+        <v>2086838</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6996547344725138</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6822102021265374</v>
+        <v>0.6830178853122945</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7152256069792778</v>
+        <v>0.7166657968238469</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2059</v>
@@ -4334,19 +4334,19 @@
         <v>2233766</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2180238</v>
+        <v>2181594</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2283531</v>
+        <v>2281781</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7103762081812501</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6933533388807487</v>
+        <v>0.6937845759946754</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7262022566076876</v>
+        <v>0.7256457090759086</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3964</v>
@@ -4355,19 +4355,19 @@
         <v>4271071</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4197985</v>
+        <v>4198634</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4338605</v>
+        <v>4346407</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7052213661971286</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6931538006708637</v>
+        <v>0.6932609568739055</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7163722591564285</v>
+        <v>0.7176605806689696</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>102453</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>84111</v>
+        <v>87208</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>120814</v>
+        <v>121337</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.290365349516421</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2383838075064591</v>
+        <v>0.2471610063346385</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3424035098461698</v>
+        <v>0.343887238655868</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>88</v>
@@ -4723,19 +4723,19 @@
         <v>87929</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>74403</v>
+        <v>73306</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>106155</v>
+        <v>104701</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2498486958228181</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2114132354886711</v>
+        <v>0.2082965861044043</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3016360944033653</v>
+        <v>0.2975055737813125</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>183</v>
@@ -4744,19 +4744,19 @@
         <v>190382</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>166135</v>
+        <v>168787</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>215982</v>
+        <v>214913</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2701331638753658</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2357293155094796</v>
+        <v>0.2394925008210258</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3064571462945489</v>
+        <v>0.3049405049606587</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>250387</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>232026</v>
+        <v>231503</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>268729</v>
+        <v>265632</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.709634650483579</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6575964901538303</v>
+        <v>0.6561127613441319</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.761616192493541</v>
+        <v>0.7528389936653616</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>271</v>
@@ -4794,19 +4794,19 @@
         <v>264001</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>245775</v>
+        <v>247229</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>277527</v>
+        <v>278624</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7501513041771819</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.698363905596635</v>
+        <v>0.7024944262186874</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7885867645113291</v>
+        <v>0.7917034138955954</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>507</v>
@@ -4815,19 +4815,19 @@
         <v>514388</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>488788</v>
+        <v>489857</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>538635</v>
+        <v>535983</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7298668361246341</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.693542853705451</v>
+        <v>0.6950594950393414</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7642706844905203</v>
+        <v>0.7605074991789742</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>167800</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>149483</v>
+        <v>146826</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>189862</v>
+        <v>189342</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3403111578526381</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3031621265825666</v>
+        <v>0.2977746240220877</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3850537981629522</v>
+        <v>0.3839991084745035</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>154</v>
@@ -4940,19 +4940,19 @@
         <v>149838</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>130264</v>
+        <v>131982</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>171053</v>
+        <v>172036</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3016543664891743</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.262248583827759</v>
+        <v>0.2657078871906665</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3443648290090781</v>
+        <v>0.3463448694528201</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>316</v>
@@ -4961,19 +4961,19 @@
         <v>317637</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>290285</v>
+        <v>289447</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>347431</v>
+        <v>346459</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3209116435324693</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2932777981224419</v>
+        <v>0.292431108791471</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3510118836679428</v>
+        <v>0.3500305285323874</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>325278</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>303216</v>
+        <v>303736</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>343595</v>
+        <v>346252</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6596888421473619</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.61494620183705</v>
+        <v>0.6160008915254965</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6968378734174338</v>
+        <v>0.7022253759779123</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>356</v>
@@ -5011,19 +5011,19 @@
         <v>346882</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>325667</v>
+        <v>324684</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>366456</v>
+        <v>364738</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6983456335108257</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6556351709909224</v>
+        <v>0.6536551305471801</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.737751416172241</v>
+        <v>0.7342921128093336</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>669</v>
@@ -5032,19 +5032,19 @@
         <v>672160</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>642366</v>
+        <v>643338</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>699512</v>
+        <v>700350</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6790883564675307</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6489881163320572</v>
+        <v>0.6499694714676117</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7067222018775581</v>
+        <v>0.7075688912085287</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>187394</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>165673</v>
+        <v>163569</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>211178</v>
+        <v>210500</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3359154573452685</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2969802309129249</v>
+        <v>0.2932083291199292</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3785507835133367</v>
+        <v>0.3773356909654053</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>177</v>
@@ -5157,19 +5157,19 @@
         <v>172446</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>151471</v>
+        <v>149073</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>193787</v>
+        <v>195376</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3009115595207085</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2643110698219365</v>
+        <v>0.2601263305580332</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3381495911231671</v>
+        <v>0.3409220817476625</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>356</v>
@@ -5178,19 +5178,19 @@
         <v>359840</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>327486</v>
+        <v>328799</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>391225</v>
+        <v>389795</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3181779617198546</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2895693792909123</v>
+        <v>0.2907304521527506</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3459288847740627</v>
+        <v>0.3446647203873268</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>370466</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>346682</v>
+        <v>347360</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>392187</v>
+        <v>394291</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6640845426547316</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6214492164866634</v>
+        <v>0.6226643090345949</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7030197690870751</v>
+        <v>0.706791670880071</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>399</v>
@@ -5228,19 +5228,19 @@
         <v>400634</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>379293</v>
+        <v>377704</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>421609</v>
+        <v>424007</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6990884404792915</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6618504088768329</v>
+        <v>0.6590779182523375</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7356889301780635</v>
+        <v>0.7398736694419668</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>751</v>
@@ -5249,19 +5249,19 @@
         <v>771100</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>739715</v>
+        <v>741145</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>803454</v>
+        <v>802141</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6818220382801454</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6540711152259373</v>
+        <v>0.6553352796126732</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7104306207090877</v>
+        <v>0.7092695478472494</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>141871</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>122094</v>
+        <v>120299</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>164041</v>
+        <v>164682</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2768907290560058</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.238291096570484</v>
+        <v>0.2347891736825434</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3201607203836835</v>
+        <v>0.3214119467151072</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>145</v>
@@ -5374,19 +5374,19 @@
         <v>156838</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>135956</v>
+        <v>136988</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>179504</v>
+        <v>178573</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2878372405679546</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2495136486903035</v>
+        <v>0.251407763882736</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3294347286606396</v>
+        <v>0.3277260628786356</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>271</v>
@@ -5395,19 +5395,19 @@
         <v>298709</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>268269</v>
+        <v>268904</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>328249</v>
+        <v>329198</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2825322965262191</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2537407336625911</v>
+        <v>0.2543409833670172</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3104721886726039</v>
+        <v>0.3113706118647484</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>370501</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>348331</v>
+        <v>347690</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>390278</v>
+        <v>392073</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7231092709439942</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6798392796163166</v>
+        <v>0.6785880532848928</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7617089034295161</v>
+        <v>0.7652108263174567</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>362</v>
@@ -5445,19 +5445,19 @@
         <v>388046</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>365380</v>
+        <v>366311</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>408928</v>
+        <v>407896</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7121627594320454</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6705652713393602</v>
+        <v>0.6722739371213644</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7504863513096963</v>
+        <v>0.748592236117264</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>699</v>
@@ -5466,19 +5466,19 @@
         <v>758547</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>729007</v>
+        <v>728058</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>788987</v>
+        <v>788352</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7174677034737809</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6895278113273962</v>
+        <v>0.6886293881352517</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7462592663374088</v>
+        <v>0.745659016632983</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>76860</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61236</v>
+        <v>60515</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>93782</v>
+        <v>94420</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2071683743039531</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1650544850857975</v>
+        <v>0.1631117002525509</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2527791565562363</v>
+        <v>0.2545010610151189</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>87</v>
@@ -5591,19 +5591,19 @@
         <v>96903</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>79683</v>
+        <v>79633</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>114047</v>
+        <v>115010</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2447829680849061</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2012836938746858</v>
+        <v>0.2011587030760923</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2880911175688733</v>
+        <v>0.290522438796227</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>154</v>
@@ -5612,19 +5612,19 @@
         <v>173763</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>151988</v>
+        <v>151865</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>199097</v>
+        <v>202787</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2265856331119568</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.198191285939098</v>
+        <v>0.1980314757960046</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2596207096094446</v>
+        <v>0.2644331394525305</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>294142</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>277220</v>
+        <v>276582</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>309766</v>
+        <v>310487</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7928316256960468</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7472208434437637</v>
+        <v>0.7454989389848813</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8349455149142025</v>
+        <v>0.8368882997474492</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>258</v>
@@ -5662,19 +5662,19 @@
         <v>298970</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>281826</v>
+        <v>280863</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>316190</v>
+        <v>316240</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7552170319150939</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7119088824311267</v>
+        <v>0.7094775612037733</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.798716306125314</v>
+        <v>0.7988412969239082</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>520</v>
@@ -5683,19 +5683,19 @@
         <v>593112</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>567778</v>
+        <v>564088</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>614887</v>
+        <v>615010</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7734143668880432</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7403792903905556</v>
+        <v>0.7355668605474694</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8018087140609033</v>
+        <v>0.8019685242039952</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>43458</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32248</v>
+        <v>31240</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>56103</v>
+        <v>56228</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1888445151671587</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1401303900372652</v>
+        <v>0.1357544183408971</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2437917812272622</v>
+        <v>0.2443383309070112</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -5808,19 +5808,19 @@
         <v>61855</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48303</v>
+        <v>49395</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78259</v>
+        <v>75544</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2233454522054821</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1744102841016659</v>
+        <v>0.1783531975435708</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2825771480992721</v>
+        <v>0.2727722442927655</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>103</v>
@@ -5829,19 +5829,19 @@
         <v>105313</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>88545</v>
+        <v>87723</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>123927</v>
+        <v>125048</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2076878787777953</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1746201734908346</v>
+        <v>0.1729981142752538</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2443962449943221</v>
+        <v>0.2466079521039069</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>186667</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>174022</v>
+        <v>173897</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>197877</v>
+        <v>198885</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8111554848328413</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7562082187727378</v>
+        <v>0.7556616690929888</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8598696099627349</v>
+        <v>0.8642455816591029</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>201</v>
@@ -5879,19 +5879,19 @@
         <v>215093</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>198689</v>
+        <v>201404</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>228645</v>
+        <v>227553</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7766545477945179</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7174228519007281</v>
+        <v>0.7272277557072346</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8255897158983341</v>
+        <v>0.8216468024564292</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>383</v>
@@ -5900,19 +5900,19 @@
         <v>401761</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>383147</v>
+        <v>382026</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>418529</v>
+        <v>419351</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7923121212222047</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7556037550056779</v>
+        <v>0.7533920478960933</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8253798265091654</v>
+        <v>0.8270018857247463</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>14769</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9033</v>
+        <v>9696</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22195</v>
+        <v>21971</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1004301601326233</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06142317272581967</v>
+        <v>0.06593318928483163</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1509294109408563</v>
+        <v>0.1494073379849934</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -6025,19 +6025,19 @@
         <v>28098</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17450</v>
+        <v>17424</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41592</v>
+        <v>41293</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1233015596212133</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07657530857611401</v>
+        <v>0.07646275214913953</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1825173281957706</v>
+        <v>0.1812064638177817</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -6046,19 +6046,19 @@
         <v>42867</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31160</v>
+        <v>31293</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>57070</v>
+        <v>58857</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1143309699969455</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08310679661309968</v>
+        <v>0.08346292841028105</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1522135340885794</v>
+        <v>0.1569781044936238</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>132288</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>124862</v>
+        <v>125086</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>138024</v>
+        <v>137361</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8995698398673767</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8490705890591429</v>
+        <v>0.8505926620150065</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9385768272741802</v>
+        <v>0.9340668107151683</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>150</v>
@@ -6096,19 +6096,19 @@
         <v>199781</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>186287</v>
+        <v>186586</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>210429</v>
+        <v>210455</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8766984403787866</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8174826718042295</v>
+        <v>0.8187935361822182</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9234246914238859</v>
+        <v>0.9235372478508606</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>307</v>
@@ -6117,19 +6117,19 @@
         <v>332069</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>317866</v>
+        <v>316079</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>343776</v>
+        <v>343643</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8856690300030545</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8477864659114206</v>
+        <v>0.8430218955063765</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9168932033869002</v>
+        <v>0.916537071589719</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>734604</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>687821</v>
+        <v>689263</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>785836</v>
+        <v>783636</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.275717676702138</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2581588586487161</v>
+        <v>0.2587000698777859</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2949465603126752</v>
+        <v>0.2941207202796064</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>730</v>
@@ -6242,19 +6242,19 @@
         <v>753907</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>706318</v>
+        <v>703141</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>802908</v>
+        <v>799332</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2629315097196918</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2463343077326615</v>
+        <v>0.2452263651303141</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.280020733564917</v>
+        <v>0.2787736208645111</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1421</v>
@@ -6263,19 +6263,19 @@
         <v>1488511</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1418530</v>
+        <v>1426677</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1556025</v>
+        <v>1556251</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2690900013484158</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.256438865050747</v>
+        <v>0.2579118168643699</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.281295052198706</v>
+        <v>0.2813359264725799</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>1929729</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1878497</v>
+        <v>1880697</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1976512</v>
+        <v>1975070</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.724282323297862</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7050534396873248</v>
+        <v>0.7058792797203935</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7418411413512839</v>
+        <v>0.7412999301222138</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1997</v>
@@ -6313,19 +6313,19 @@
         <v>2113408</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2064407</v>
+        <v>2067983</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2160997</v>
+        <v>2164174</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7370684902803082</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.719979266435083</v>
+        <v>0.7212263791354889</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7536656922673384</v>
+        <v>0.7547736348696858</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3836</v>
@@ -6334,19 +6334,19 @@
         <v>4043137</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3975623</v>
+        <v>3975397</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4113118</v>
+        <v>4104971</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7309099986515842</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.718704947801294</v>
+        <v>0.7186640735274201</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.743561134949253</v>
+        <v>0.7420881831356303</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>86293</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61116</v>
+        <v>60141</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>119324</v>
+        <v>119273</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2277728099586204</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1613185219561366</v>
+        <v>0.1587435314654643</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3149602420773863</v>
+        <v>0.3148256210458062</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -6702,19 +6702,19 @@
         <v>56076</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37909</v>
+        <v>38531</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79425</v>
+        <v>78503</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1633734079508037</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1104459429925448</v>
+        <v>0.1122563491640621</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2313980016870657</v>
+        <v>0.2287125636501472</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>57</v>
@@ -6723,19 +6723,19 @@
         <v>142369</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>110582</v>
+        <v>111977</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>179317</v>
+        <v>179499</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1971612110309544</v>
+        <v>0.1971612110309543</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1531403350005685</v>
+        <v>0.1550732994423754</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2483289611724716</v>
+        <v>0.2485813686598816</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>292561</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>259530</v>
+        <v>259581</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>317738</v>
+        <v>318713</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7722271900413796</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6850397579226138</v>
+        <v>0.6851743789541948</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8386814780438633</v>
+        <v>0.841256468534536</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>169</v>
@@ -6773,19 +6773,19 @@
         <v>287164</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>263815</v>
+        <v>264737</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>305331</v>
+        <v>304709</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8366265920491963</v>
+        <v>0.8366265920491964</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7686019983129344</v>
+        <v>0.7712874363498528</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8895540570074555</v>
+        <v>0.8877436508359381</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>295</v>
@@ -6794,19 +6794,19 @@
         <v>579725</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>542777</v>
+        <v>542595</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>611512</v>
+        <v>610117</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8028387889690457</v>
+        <v>0.8028387889690456</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7516710388275284</v>
+        <v>0.7514186313401183</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8468596649994315</v>
+        <v>0.8449267005576245</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>98361</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76211</v>
+        <v>77792</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>123310</v>
+        <v>124762</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2205932960386192</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1709166222978617</v>
+        <v>0.1744629994726488</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2765468442095781</v>
+        <v>0.2798017731473179</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -6919,19 +6919,19 @@
         <v>96899</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>80455</v>
+        <v>79734</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115718</v>
+        <v>117141</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2007823405320332</v>
+        <v>0.2007823405320333</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1667092057670266</v>
+        <v>0.165213650200296</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2397761597225767</v>
+        <v>0.242724379383993</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>152</v>
@@ -6940,19 +6940,19 @@
         <v>195260</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>165663</v>
+        <v>167568</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>226128</v>
+        <v>225597</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2102961192164281</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1784200249321143</v>
+        <v>0.1804714091615229</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2435411915739916</v>
+        <v>0.2429685723237639</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>347532</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>322583</v>
+        <v>321131</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>369682</v>
+        <v>368101</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7794067039613808</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7234531557904218</v>
+        <v>0.7201982268526822</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8290833777021384</v>
+        <v>0.8255370005273515</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>353</v>
@@ -6990,19 +6990,19 @@
         <v>385710</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>366891</v>
+        <v>365468</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>402154</v>
+        <v>402875</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7992176594679666</v>
+        <v>0.7992176594679667</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7602238402774242</v>
+        <v>0.7572756206160071</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8332907942329736</v>
+        <v>0.8347863497997041</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>571</v>
@@ -7011,19 +7011,19 @@
         <v>733242</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>702374</v>
+        <v>702905</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>762839</v>
+        <v>760934</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7897038807835719</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7564588084260082</v>
+        <v>0.757031427676236</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8215799750678855</v>
+        <v>0.8195285908384771</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>128472</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107631</v>
+        <v>108216</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>150995</v>
+        <v>150324</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2141464143176547</v>
+        <v>0.2141464143176548</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1794067828299402</v>
+        <v>0.1803824773665772</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2516896849347531</v>
+        <v>0.2505715266457663</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>181</v>
@@ -7136,19 +7136,19 @@
         <v>132254</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>114913</v>
+        <v>115079</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>151241</v>
+        <v>151190</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2177809128392573</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1892254669623038</v>
+        <v>0.1894990501229288</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2490450300440267</v>
+        <v>0.2489616070492406</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>297</v>
@@ -7157,19 +7157,19 @@
         <v>260726</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>235604</v>
+        <v>234724</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>285862</v>
+        <v>288025</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2159747378815822</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1951647511344802</v>
+        <v>0.1944359035822108</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.236796550613575</v>
+        <v>0.2385882984432172</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>471453</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>448930</v>
+        <v>449601</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>492294</v>
+        <v>491709</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7858535856823453</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7483103150652468</v>
+        <v>0.7494284733542337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8205932171700597</v>
+        <v>0.8196175226334228</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>644</v>
@@ -7207,19 +7207,19 @@
         <v>475028</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>456041</v>
+        <v>456092</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>492369</v>
+        <v>492203</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7822190871607427</v>
+        <v>0.7822190871607426</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7509549699559734</v>
+        <v>0.7510383929507595</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8107745330376965</v>
+        <v>0.8105009498770713</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1054</v>
@@ -7228,19 +7228,19 @@
         <v>946480</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>921344</v>
+        <v>919181</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>971602</v>
+        <v>972482</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7840252621184178</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7632034493864249</v>
+        <v>0.7614117015567829</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8048352488655197</v>
+        <v>0.8055640964177894</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>149502</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>127915</v>
+        <v>127208</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>174353</v>
+        <v>173041</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2204070380088503</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1885821741293138</v>
+        <v>0.1875398297161307</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.257044687388041</v>
+        <v>0.2551094799336479</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>239</v>
@@ -7353,19 +7353,19 @@
         <v>151075</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>133848</v>
+        <v>133945</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170152</v>
+        <v>168925</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2093156062290719</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1854475522348289</v>
+        <v>0.1855814332538838</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2357469469076297</v>
+        <v>0.2340470453373286</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>379</v>
@@ -7374,19 +7374,19 @@
         <v>300577</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>272922</v>
+        <v>271570</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>330274</v>
+        <v>331615</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2146891842222444</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1949368245510932</v>
+        <v>0.1939705969655231</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2359003186597857</v>
+        <v>0.2368585343847243</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>528797</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>503946</v>
+        <v>505258</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>550384</v>
+        <v>551091</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7795929619911496</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7429553126119591</v>
+        <v>0.7448905200663521</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8114178258706866</v>
+        <v>0.8124601702838693</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>878</v>
@@ -7424,19 +7424,19 @@
         <v>570682</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>551605</v>
+        <v>552832</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>587909</v>
+        <v>587812</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.790684393770928</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7642530530923703</v>
+        <v>0.7659529546626719</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8145524477651713</v>
+        <v>0.8144185667461163</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1379</v>
@@ -7445,19 +7445,19 @@
         <v>1099479</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1069782</v>
+        <v>1068441</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1127134</v>
+        <v>1128486</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7853108157777554</v>
+        <v>0.7853108157777556</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7640996813402142</v>
+        <v>0.7631414656152756</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.805063175448907</v>
+        <v>0.806029403034477</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>109953</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>90769</v>
+        <v>91909</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128149</v>
+        <v>128076</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1853078785090777</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1529757494051225</v>
+        <v>0.1548977508174518</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2159737667607264</v>
+        <v>0.2158497686304538</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>212</v>
@@ -7570,19 +7570,19 @@
         <v>124035</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>109007</v>
+        <v>109067</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>139197</v>
+        <v>139731</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2083993703057875</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1831491408419592</v>
+        <v>0.1832497370299056</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2338736373408878</v>
+        <v>0.2347706452638378</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>327</v>
@@ -7591,19 +7591,19 @@
         <v>233989</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>210494</v>
+        <v>211951</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>256449</v>
+        <v>258800</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1968713614081479</v>
+        <v>0.196871361408148</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1771033596619076</v>
+        <v>0.1783296749160735</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2157684415180327</v>
+        <v>0.2177472593928373</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>483402</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>465206</v>
+        <v>465279</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>502586</v>
+        <v>501446</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8146921214909224</v>
+        <v>0.8146921214909223</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7840262332392737</v>
+        <v>0.7841502313695462</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8470242505948775</v>
+        <v>0.8451022491825483</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>768</v>
@@ -7641,19 +7641,19 @@
         <v>471146</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>455984</v>
+        <v>455450</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>486174</v>
+        <v>486114</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7916006296942125</v>
+        <v>0.7916006296942123</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7661263626591123</v>
+        <v>0.765229354736162</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8168508591580406</v>
+        <v>0.8167502629700946</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1298</v>
@@ -7662,19 +7662,19 @@
         <v>954547</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>932087</v>
+        <v>929736</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>978042</v>
+        <v>976585</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8031286385918519</v>
+        <v>0.803128638591852</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7842315584819676</v>
+        <v>0.7822527406071624</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8228966403380923</v>
+        <v>0.8216703250839266</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>51773</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39868</v>
+        <v>41085</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62969</v>
+        <v>64187</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.130167598603486</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1002354271841172</v>
+        <v>0.103295161709231</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1583152119753103</v>
+        <v>0.1613772983901351</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>130</v>
@@ -7787,19 +7787,19 @@
         <v>68067</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>58045</v>
+        <v>57960</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>80546</v>
+        <v>79981</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1586921094746238</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1353261935855501</v>
+        <v>0.1351281127338724</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1877851833759463</v>
+        <v>0.1864687259565465</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>197</v>
@@ -7808,19 +7808,19 @@
         <v>119840</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>104662</v>
+        <v>104573</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>135867</v>
+        <v>137229</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.144967816442183</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1266065686660323</v>
+        <v>0.1264996219833442</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1643547571438725</v>
+        <v>0.1660021100002478</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>345971</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>334775</v>
+        <v>333557</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>357876</v>
+        <v>356659</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8698324013965142</v>
+        <v>0.869832401396514</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8416847880246896</v>
+        <v>0.8386227016098647</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.899764572815883</v>
+        <v>0.896704838290769</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>677</v>
@@ -7858,19 +7858,19 @@
         <v>360858</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>348379</v>
+        <v>348944</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>370880</v>
+        <v>370965</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8413078905253762</v>
+        <v>0.8413078905253761</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8122148166240539</v>
+        <v>0.8135312740434535</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8646738064144499</v>
+        <v>0.8648718872661275</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1166</v>
@@ -7879,19 +7879,19 @@
         <v>706829</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>690802</v>
+        <v>689440</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>722007</v>
+        <v>722096</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8550321835578168</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8356452428561271</v>
+        <v>0.8339978899997522</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8733934313339676</v>
+        <v>0.8735003780166556</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>24950</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17909</v>
+        <v>17825</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33490</v>
+        <v>33679</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08250313711668965</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05922058198067462</v>
+        <v>0.05894385475917171</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1107455285679848</v>
+        <v>0.111370170838578</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>64</v>
@@ -8004,19 +8004,19 @@
         <v>35680</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28152</v>
+        <v>28153</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45091</v>
+        <v>44782</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08003730765514193</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06315240404193506</v>
+        <v>0.06315428361789518</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1011491007229483</v>
+        <v>0.1004567240357659</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>101</v>
@@ -8025,19 +8025,19 @@
         <v>60629</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>48894</v>
+        <v>49102</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>72344</v>
+        <v>73118</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08103395820943619</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06534870333697491</v>
+        <v>0.06562721698297144</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.096690689963154</v>
+        <v>0.09772638565373822</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>277459</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>268919</v>
+        <v>268730</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>284500</v>
+        <v>284584</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9174968628833103</v>
+        <v>0.9174968628833104</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8892544714320153</v>
+        <v>0.8886298291614221</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9407794180193252</v>
+        <v>0.9410561452408285</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>786</v>
@@ -8075,19 +8075,19 @@
         <v>410106</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>400695</v>
+        <v>401004</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>417634</v>
+        <v>417633</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9199626923448581</v>
+        <v>0.9199626923448582</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8988508992770518</v>
+        <v>0.8995432759642342</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.936847595958065</v>
+        <v>0.9368457163821048</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1195</v>
@@ -8096,19 +8096,19 @@
         <v>687567</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>675852</v>
+        <v>675078</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>699302</v>
+        <v>699094</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9189660417905637</v>
+        <v>0.918966041790564</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9033093100368462</v>
+        <v>0.902273614346262</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9346512966630252</v>
+        <v>0.9343727830170284</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>649304</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>601502</v>
+        <v>598029</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>706796</v>
+        <v>706061</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1911696523671299</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1770956407395711</v>
+        <v>0.1760733305823292</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2080966291172566</v>
+        <v>0.2078803591585509</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>941</v>
@@ -8221,19 +8221,19 @@
         <v>664087</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>622876</v>
+        <v>627216</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>704013</v>
+        <v>709353</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1832074983763039</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1718381972868926</v>
+        <v>0.1730357289129592</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1942222947800154</v>
+        <v>0.1956955172622182</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1510</v>
@@ -8242,19 +8242,19 @@
         <v>1313391</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1254155</v>
+        <v>1246986</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1392551</v>
+        <v>1377317</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1870591279483034</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1786225381199262</v>
+        <v>0.1776015480080458</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1983335651649146</v>
+        <v>0.1961638509567183</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2747175</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2689683</v>
+        <v>2690418</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2794977</v>
+        <v>2798450</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8088303476328701</v>
+        <v>0.8088303476328702</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7919033708827434</v>
+        <v>0.7921196408414497</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8229043592604288</v>
+        <v>0.823926669417671</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4275</v>
@@ -8292,19 +8292,19 @@
         <v>2960693</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2920767</v>
+        <v>2915427</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3001904</v>
+        <v>2997564</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8167925016236961</v>
+        <v>0.816792501623696</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8057777052199844</v>
+        <v>0.8043044827377815</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8281618027131076</v>
+        <v>0.8269642710870403</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6958</v>
@@ -8313,19 +8313,19 @@
         <v>5707868</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5628708</v>
+        <v>5643942</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5767104</v>
+        <v>5774273</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8129408720516967</v>
+        <v>0.8129408720516966</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8016664348350853</v>
+        <v>0.8038361490432818</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8213774618800735</v>
+        <v>0.8223984519919543</v>
       </c>
     </row>
     <row r="27">
